--- a/processed_data/validation_data/kmeans_results.xlsx
+++ b/processed_data/validation_data/kmeans_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="356">
   <si>
     <t>fname</t>
   </si>
@@ -830,6 +830,258 @@
   <si>
     <t>dp</t>
   </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0047.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0058.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0061.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0062.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0003.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0037.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0038.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0040.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0011.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0019.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0020.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0022.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0026.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0051.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0054.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0055.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0057.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0058.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0002.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0004.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0005.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0010.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0023.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0027.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0030.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0033.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0043.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0048.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0057.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
 </sst>
 </file>
 
@@ -849,7 +1101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -860,15 +1112,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,63 +1157,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -1015,7 +1269,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
@@ -1071,7 +1325,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -1123,7 +1377,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
@@ -1179,7 +1433,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
@@ -1235,7 +1489,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -1291,7 +1545,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
@@ -1347,7 +1601,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -1403,7 +1657,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
@@ -1459,7 +1713,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -1515,7 +1769,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
@@ -1571,7 +1825,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1627,7 +1881,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1683,7 +1937,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
@@ -1739,7 +1993,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
@@ -1795,7 +2049,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
@@ -1847,7 +2101,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
@@ -1903,7 +2157,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
@@ -1955,7 +2209,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
@@ -2007,7 +2261,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -2063,7 +2317,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -2119,7 +2373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -2171,7 +2425,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
@@ -2223,7 +2477,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
@@ -2279,7 +2533,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
@@ -2335,7 +2589,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
@@ -2387,7 +2641,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
@@ -2443,7 +2697,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
@@ -2499,7 +2753,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
@@ -2555,7 +2809,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
@@ -2607,7 +2861,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2659,7 +2913,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2715,7 +2969,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -2771,7 +3025,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -2823,7 +3077,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -2875,7 +3129,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -2931,7 +3185,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -2987,7 +3241,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -3043,7 +3297,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -3099,7 +3353,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -3155,7 +3409,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
@@ -3211,7 +3465,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
@@ -3267,7 +3521,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
@@ -3319,7 +3573,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
@@ -3371,7 +3625,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
@@ -3423,7 +3677,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -3475,7 +3729,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -3527,7 +3781,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3583,7 +3837,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3635,7 +3889,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3687,7 +3941,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
@@ -3743,7 +3997,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
@@ -3799,7 +4053,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
@@ -3855,7 +4109,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
@@ -3907,7 +4161,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
@@ -3959,7 +4213,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
@@ -4015,7 +4269,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
@@ -4071,7 +4325,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
@@ -4127,7 +4381,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
@@ -4179,7 +4433,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
@@ -4231,7 +4485,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
@@ -4287,7 +4541,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
@@ -4339,7 +4593,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
@@ -4395,7 +4649,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
@@ -4447,7 +4701,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
@@ -4503,7 +4757,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
@@ -4555,7 +4809,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
@@ -4607,7 +4861,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
@@ -4659,7 +4913,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
@@ -4711,7 +4965,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
@@ -4763,7 +5017,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
@@ -4819,7 +5073,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
@@ -4875,7 +5129,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
@@ -4927,7 +5181,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
@@ -4979,7 +5233,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
@@ -5035,7 +5289,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
@@ -5091,7 +5345,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
@@ -5147,7 +5401,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
@@ -5203,7 +5457,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
@@ -5259,7 +5513,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
@@ -5315,7 +5569,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
@@ -5371,7 +5625,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
@@ -5427,7 +5681,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
@@ -5483,7 +5737,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
@@ -5539,7 +5793,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
@@ -5595,7 +5849,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
@@ -5651,7 +5905,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
@@ -5703,7 +5957,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
@@ -5759,7 +6013,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
@@ -5815,7 +6069,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
@@ -5867,7 +6121,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
@@ -5919,7 +6173,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
@@ -5975,7 +6229,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B94" s="0">
         <v>93</v>
@@ -6031,7 +6285,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B95" s="0">
         <v>94</v>
@@ -6087,7 +6341,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B96" s="0">
         <v>95</v>
@@ -6139,7 +6393,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B97" s="0">
         <v>96</v>
@@ -6195,7 +6449,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B98" s="0">
         <v>97</v>
@@ -6251,7 +6505,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B99" s="0">
         <v>98</v>
@@ -6303,7 +6557,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B100" s="0">
         <v>99</v>
@@ -6359,7 +6613,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B101" s="0">
         <v>100</v>
@@ -6415,7 +6669,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B102" s="0">
         <v>101</v>
@@ -6467,7 +6721,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B103" s="0">
         <v>102</v>
@@ -6519,7 +6773,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B104" s="0">
         <v>103</v>
@@ -6575,7 +6829,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="B105" s="0">
         <v>104</v>
@@ -6627,7 +6881,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B106" s="0">
         <v>105</v>
@@ -6679,7 +6933,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B107" s="0">
         <v>106</v>
@@ -6735,7 +6989,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B108" s="0">
         <v>107</v>
@@ -6791,7 +7045,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B109" s="0">
         <v>108</v>
@@ -6847,7 +7101,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B110" s="0">
         <v>109</v>
@@ -6903,7 +7157,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B111" s="0">
         <v>110</v>
@@ -6955,7 +7209,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B112" s="0">
         <v>111</v>
@@ -7011,7 +7265,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B113" s="0">
         <v>112</v>
@@ -7067,7 +7321,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="B114" s="0">
         <v>113</v>
@@ -7123,7 +7377,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="B115" s="0">
         <v>114</v>
@@ -7175,7 +7429,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="B116" s="0">
         <v>115</v>
@@ -7231,7 +7485,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="B117" s="0">
         <v>116</v>
@@ -7287,7 +7541,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="B118" s="0">
         <v>117</v>
@@ -7339,7 +7593,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="B119" s="0">
         <v>118</v>
@@ -7395,7 +7649,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="B120" s="0">
         <v>119</v>
@@ -7447,7 +7701,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="B121" s="0">
         <v>120</v>
@@ -7499,7 +7753,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="B122" s="0">
         <v>121</v>
@@ -7555,7 +7809,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B123" s="0">
         <v>122</v>
@@ -7611,7 +7865,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B124" s="0">
         <v>123</v>
@@ -7667,7 +7921,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B125" s="0">
         <v>124</v>
@@ -7723,7 +7977,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B126" s="0">
         <v>125</v>
@@ -7779,7 +8033,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B127" s="0">
         <v>126</v>
@@ -7835,7 +8089,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B128" s="0">
         <v>127</v>
@@ -7891,7 +8145,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B129" s="0">
         <v>128</v>
@@ -7943,7 +8197,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B130" s="0">
         <v>129</v>
@@ -7995,7 +8249,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B131" s="0">
         <v>130</v>
@@ -8047,7 +8301,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B132" s="0">
         <v>131</v>
@@ -8103,7 +8357,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B133" s="0">
         <v>132</v>
@@ -8155,7 +8409,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B134" s="0">
         <v>133</v>
@@ -8207,7 +8461,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B135" s="0">
         <v>134</v>
@@ -8259,7 +8513,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B136" s="0">
         <v>135</v>
@@ -8315,7 +8569,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B137" s="0">
         <v>136</v>
@@ -8367,7 +8621,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B138" s="0">
         <v>137</v>
@@ -8423,7 +8677,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B139" s="0">
         <v>138</v>
@@ -8475,7 +8729,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B140" s="0">
         <v>139</v>
@@ -8531,7 +8785,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B141" s="0">
         <v>140</v>
@@ -8587,7 +8841,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B142" s="0">
         <v>141</v>
@@ -8639,7 +8893,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B143" s="0">
         <v>142</v>
@@ -8691,7 +8945,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B144" s="0">
         <v>143</v>
@@ -8747,7 +9001,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B145" s="0">
         <v>144</v>
@@ -8799,7 +9053,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B146" s="0">
         <v>145</v>
@@ -8851,7 +9105,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B147" s="0">
         <v>146</v>
@@ -8903,7 +9157,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="B148" s="0">
         <v>147</v>
@@ -8959,7 +9213,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B149" s="0">
         <v>148</v>
@@ -9015,7 +9269,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B150" s="0">
         <v>149</v>
@@ -9067,7 +9321,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B151" s="0">
         <v>150</v>
@@ -9123,7 +9377,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B152" s="0">
         <v>151</v>
@@ -9179,7 +9433,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B153" s="0">
         <v>152</v>
@@ -9231,7 +9485,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B154" s="0">
         <v>153</v>
@@ -9283,7 +9537,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B155" s="0">
         <v>154</v>
@@ -9335,7 +9589,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B156" s="0">
         <v>155</v>
@@ -9387,7 +9641,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B157" s="0">
         <v>156</v>
@@ -9439,7 +9693,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B158" s="0">
         <v>157</v>
@@ -9495,7 +9749,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B159" s="0">
         <v>158</v>
@@ -9551,7 +9805,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B160" s="0">
         <v>159</v>
@@ -9603,7 +9857,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B161" s="0">
         <v>160</v>
@@ -9659,7 +9913,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B162" s="0">
         <v>161</v>
@@ -9715,7 +9969,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B163" s="0">
         <v>162</v>
@@ -9771,7 +10025,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B164" s="0">
         <v>163</v>
@@ -9827,7 +10081,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B165" s="0">
         <v>164</v>
@@ -9883,7 +10137,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B166" s="0">
         <v>165</v>
@@ -9939,7 +10193,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B167" s="0">
         <v>166</v>
@@ -9991,7 +10245,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B168" s="0">
         <v>167</v>
@@ -10043,7 +10297,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B169" s="0">
         <v>168</v>
@@ -10099,7 +10353,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B170" s="0">
         <v>169</v>
@@ -10155,7 +10409,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B171" s="0">
         <v>170</v>
@@ -10211,7 +10465,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B172" s="0">
         <v>171</v>
@@ -10267,7 +10521,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B173" s="0">
         <v>172</v>
@@ -10323,7 +10577,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B174" s="0">
         <v>173</v>
@@ -10375,7 +10629,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B175" s="0">
         <v>174</v>
@@ -10431,7 +10685,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B176" s="0">
         <v>175</v>
@@ -10483,7 +10737,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B177" s="0">
         <v>176</v>
@@ -10539,7 +10793,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B178" s="0">
         <v>177</v>
@@ -10595,7 +10849,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B179" s="0">
         <v>178</v>
@@ -10651,7 +10905,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B180" s="0">
         <v>179</v>
@@ -10703,7 +10957,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B181" s="0">
         <v>180</v>
@@ -10759,7 +11013,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B182" s="0">
         <v>181</v>
@@ -10815,7 +11069,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B183" s="0">
         <v>182</v>
@@ -10871,7 +11125,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B184" s="0">
         <v>183</v>
@@ -10923,7 +11177,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B185" s="0">
         <v>184</v>
@@ -10975,7 +11229,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B186" s="0">
         <v>185</v>
@@ -11027,7 +11281,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B187" s="0">
         <v>186</v>
@@ -11083,7 +11337,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B188" s="0">
         <v>187</v>
@@ -11139,7 +11393,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="B189" s="0">
         <v>188</v>
@@ -11195,7 +11449,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B190" s="0">
         <v>189</v>
@@ -11247,7 +11501,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B191" s="0">
         <v>190</v>
@@ -11303,7 +11557,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B192" s="0">
         <v>191</v>
@@ -11359,7 +11613,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B193" s="0">
         <v>192</v>
@@ -11415,7 +11669,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B194" s="0">
         <v>193</v>
@@ -11471,7 +11725,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B195" s="0">
         <v>194</v>
@@ -11523,7 +11777,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B196" s="0">
         <v>195</v>
@@ -11579,7 +11833,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B197" s="0">
         <v>196</v>
@@ -11635,7 +11889,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B198" s="0">
         <v>197</v>
@@ -11691,7 +11945,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B199" s="0">
         <v>198</v>
@@ -11747,7 +12001,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B200" s="0">
         <v>199</v>
@@ -11803,7 +12057,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B201" s="0">
         <v>200</v>
@@ -11859,7 +12113,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B202" s="0">
         <v>201</v>
@@ -11915,7 +12169,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="B203" s="0">
         <v>202</v>
@@ -11971,7 +12225,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B204" s="0">
         <v>203</v>
@@ -12027,7 +12281,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B205" s="0">
         <v>204</v>
@@ -12083,7 +12337,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B206" s="0">
         <v>205</v>
@@ -12135,7 +12389,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B207" s="0">
         <v>206</v>
@@ -12191,7 +12445,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B208" s="0">
         <v>207</v>
@@ -12243,7 +12497,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B209" s="0">
         <v>208</v>
@@ -12299,7 +12553,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B210" s="0">
         <v>209</v>
@@ -12355,7 +12609,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B211" s="0">
         <v>210</v>
@@ -12411,7 +12665,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B212" s="0">
         <v>211</v>
@@ -12463,7 +12717,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B213" s="0">
         <v>212</v>
@@ -12515,7 +12769,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B214" s="0">
         <v>213</v>
@@ -12567,7 +12821,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B215" s="0">
         <v>214</v>
@@ -12623,7 +12877,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B216" s="0">
         <v>215</v>
@@ -12675,7 +12929,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B217" s="0">
         <v>216</v>
@@ -12731,7 +12985,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B218" s="0">
         <v>217</v>
@@ -12787,7 +13041,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B219" s="0">
         <v>218</v>
@@ -12843,7 +13097,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B220" s="0">
         <v>219</v>
@@ -12899,7 +13153,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B221" s="0">
         <v>220</v>
@@ -12955,7 +13209,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B222" s="0">
         <v>221</v>
@@ -13011,7 +13265,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B223" s="0">
         <v>222</v>
@@ -13067,7 +13321,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B224" s="0">
         <v>223</v>
@@ -13123,7 +13377,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B225" s="0">
         <v>224</v>
@@ -13179,7 +13433,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B226" s="0">
         <v>225</v>
@@ -13235,7 +13489,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B227" s="0">
         <v>226</v>
@@ -13291,7 +13545,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B228" s="0">
         <v>227</v>
@@ -13347,7 +13601,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B229" s="0">
         <v>228</v>
@@ -13403,7 +13657,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B230" s="0">
         <v>229</v>
@@ -13459,7 +13713,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="B231" s="0">
         <v>230</v>
@@ -13511,7 +13765,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B232" s="0">
         <v>231</v>
@@ -13567,7 +13821,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="B233" s="0">
         <v>232</v>
@@ -13623,7 +13877,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="B234" s="0">
         <v>233</v>
@@ -13679,7 +13933,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="B235" s="0">
         <v>234</v>
@@ -13735,7 +13989,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B236" s="0">
         <v>235</v>
@@ -13791,7 +14045,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B237" s="0">
         <v>236</v>
@@ -13847,7 +14101,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B238" s="0">
         <v>237</v>
@@ -13899,7 +14153,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B239" s="0">
         <v>238</v>
@@ -13951,7 +14205,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B240" s="0">
         <v>239</v>
@@ -14003,7 +14257,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B241" s="0">
         <v>240</v>
@@ -14059,7 +14313,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B242" s="0">
         <v>241</v>
@@ -14115,7 +14369,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="B243" s="0">
         <v>242</v>
@@ -14167,7 +14421,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B244" s="0">
         <v>243</v>
@@ -14223,7 +14477,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B245" s="0">
         <v>244</v>
@@ -14279,7 +14533,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B246" s="0">
         <v>245</v>
@@ -14335,7 +14589,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B247" s="0">
         <v>246</v>
@@ -14391,7 +14645,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B248" s="0">
         <v>247</v>
@@ -14443,7 +14697,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B249" s="0">
         <v>248</v>
@@ -14495,7 +14749,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B250" s="0">
         <v>249</v>
@@ -14551,7 +14805,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B251" s="0">
         <v>250</v>
@@ -14607,7 +14861,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B252" s="0">
         <v>251</v>
@@ -14663,7 +14917,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B253" s="0">
         <v>252</v>
@@ -14715,7 +14969,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B254" s="0">
         <v>253</v>
@@ -14767,7 +15021,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="B255" s="0">
         <v>254</v>
@@ -14819,7 +15073,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="B256" s="0">
         <v>255</v>
@@ -14875,7 +15129,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="B257" s="0">
         <v>256</v>
@@ -14927,7 +15181,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B258" s="0">
         <v>257</v>
@@ -14979,7 +15233,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B259" s="0">
         <v>258</v>
@@ -15031,7 +15285,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B260" s="0">
         <v>259</v>
@@ -15083,7 +15337,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B261" s="0">
         <v>260</v>
@@ -15135,7 +15389,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B262" s="0">
         <v>261</v>
@@ -15191,7 +15445,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B263" s="0">
         <v>262</v>
@@ -15243,7 +15497,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B264" s="0">
         <v>263</v>
@@ -15299,7 +15553,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B265" s="0">
         <v>264</v>
@@ -15351,7 +15605,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B266" s="0">
         <v>265</v>
@@ -15407,7 +15661,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B267" s="0">
         <v>266</v>
@@ -15459,7 +15713,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B268" s="0">
         <v>267</v>
@@ -15511,7 +15765,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="B269" s="0">
         <v>268</v>
@@ -15563,7 +15817,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B270" s="0">
         <v>269</v>
@@ -15619,7 +15873,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B271" s="0">
         <v>270</v>
@@ -15675,7 +15929,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B272" s="0">
         <v>271</v>
@@ -15727,7 +15981,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B273" s="0">
         <v>272</v>
@@ -15783,7 +16037,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B274" s="0">
         <v>273</v>
@@ -15835,7 +16089,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B275" s="0">
         <v>274</v>
@@ -15887,7 +16141,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B276" s="0">
         <v>275</v>
@@ -15943,7 +16197,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B277" s="0">
         <v>276</v>
@@ -15999,7 +16253,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B278" s="0">
         <v>277</v>
@@ -16055,7 +16309,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B279" s="0">
         <v>278</v>
@@ -16111,7 +16365,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B280" s="0">
         <v>279</v>
@@ -16167,7 +16421,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B281" s="0">
         <v>280</v>
@@ -16223,7 +16477,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="B282" s="0">
         <v>281</v>
@@ -16279,7 +16533,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B283" s="0">
         <v>282</v>
@@ -16335,7 +16589,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B284" s="0">
         <v>283</v>
@@ -16387,7 +16641,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B285" s="0">
         <v>284</v>
@@ -16443,7 +16697,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B286" s="0">
         <v>285</v>
@@ -16495,7 +16749,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B287" s="0">
         <v>286</v>
@@ -16547,7 +16801,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B288" s="0">
         <v>287</v>
@@ -16603,7 +16857,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B289" s="0">
         <v>288</v>
@@ -16659,7 +16913,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B290" s="0">
         <v>289</v>
@@ -16711,7 +16965,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B291" s="0">
         <v>290</v>
@@ -16763,7 +17017,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="B292" s="0">
         <v>291</v>
@@ -16815,7 +17069,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B293" s="0">
         <v>292</v>
@@ -16871,7 +17125,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B294" s="0">
         <v>293</v>
@@ -16923,7 +17177,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B295" s="0">
         <v>294</v>
@@ -16975,7 +17229,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B296" s="0">
         <v>295</v>
@@ -17031,7 +17285,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B297" s="0">
         <v>296</v>
@@ -17087,7 +17341,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B298" s="0">
         <v>297</v>
@@ -17143,7 +17397,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B299" s="0">
         <v>298</v>
@@ -17195,7 +17449,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B300" s="0">
         <v>299</v>
@@ -17247,7 +17501,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B301" s="0">
         <v>300</v>
@@ -17303,7 +17557,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B302" s="0">
         <v>301</v>
@@ -17355,7 +17609,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B303" s="0">
         <v>302</v>
@@ -17407,7 +17661,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B304" s="0">
         <v>303</v>
@@ -17459,7 +17713,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B305" s="0">
         <v>304</v>
@@ -17511,7 +17765,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B306" s="0">
         <v>305</v>
@@ -17563,7 +17817,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B307" s="0">
         <v>306</v>
@@ -17615,7 +17869,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B308" s="0">
         <v>307</v>
@@ -17667,7 +17921,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B309" s="0">
         <v>308</v>
@@ -17719,7 +17973,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="B310" s="0">
         <v>309</v>
@@ -17771,7 +18025,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B311" s="0">
         <v>310</v>
@@ -17827,7 +18081,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B312" s="0">
         <v>311</v>
@@ -17879,7 +18133,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B313" s="0">
         <v>312</v>
@@ -17931,7 +18185,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B314" s="0">
         <v>313</v>
@@ -17987,7 +18241,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B315" s="0">
         <v>314</v>
@@ -18043,7 +18297,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B316" s="0">
         <v>315</v>
@@ -18095,7 +18349,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B317" s="0">
         <v>316</v>
@@ -18147,7 +18401,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B318" s="0">
         <v>317</v>
@@ -18203,7 +18457,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B319" s="0">
         <v>318</v>
@@ -18255,7 +18509,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B320" s="0">
         <v>319</v>
@@ -18307,7 +18561,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B321" s="0">
         <v>320</v>
@@ -18363,7 +18617,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B322" s="0">
         <v>321</v>
@@ -18415,7 +18669,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B323" s="0">
         <v>322</v>
@@ -18471,7 +18725,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B324" s="0">
         <v>323</v>
@@ -18527,7 +18781,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B325" s="0">
         <v>324</v>
@@ -18579,7 +18833,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B326" s="0">
         <v>325</v>
@@ -18635,7 +18889,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B327" s="0">
         <v>326</v>
@@ -18691,7 +18945,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B328" s="0">
         <v>327</v>
@@ -18743,7 +18997,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B329" s="0">
         <v>328</v>
@@ -18795,7 +19049,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B330" s="0">
         <v>329</v>
@@ -18847,7 +19101,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B331" s="0">
         <v>330</v>
@@ -18899,7 +19153,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B332" s="0">
         <v>331</v>
@@ -18955,7 +19209,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B333" s="0">
         <v>332</v>
@@ -19011,7 +19265,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B334" s="0">
         <v>333</v>
@@ -19067,7 +19321,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B335" s="0">
         <v>334</v>
@@ -19119,7 +19373,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B336" s="0">
         <v>335</v>
@@ -19175,7 +19429,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B337" s="0">
         <v>336</v>
@@ -19231,7 +19485,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B338" s="0">
         <v>337</v>
@@ -19283,7 +19537,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B339" s="0">
         <v>338</v>
@@ -19335,7 +19589,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B340" s="0">
         <v>339</v>
@@ -19387,7 +19641,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B341" s="0">
         <v>340</v>
@@ -19439,7 +19693,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B342" s="0">
         <v>341</v>
@@ -19495,7 +19749,7 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B343" s="0">
         <v>342</v>
@@ -19547,7 +19801,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B344" s="0">
         <v>343</v>
@@ -19599,7 +19853,7 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B345" s="0">
         <v>344</v>
@@ -19655,7 +19909,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B346" s="0">
         <v>345</v>
@@ -19711,7 +19965,7 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B347" s="0">
         <v>346</v>
@@ -19763,7 +20017,7 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B348" s="0">
         <v>347</v>
@@ -19819,7 +20073,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B349" s="0">
         <v>348</v>
@@ -19871,7 +20125,7 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B350" s="0">
         <v>349</v>
@@ -19923,7 +20177,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B351" s="0">
         <v>350</v>
@@ -19975,7 +20229,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="B352" s="0">
         <v>351</v>
@@ -20031,7 +20285,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="B353" s="0">
         <v>352</v>
@@ -20087,7 +20341,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="B354" s="0">
         <v>353</v>
@@ -20139,7 +20393,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="B355" s="0">
         <v>354</v>
@@ -20195,7 +20449,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="B356" s="0">
         <v>355</v>
@@ -20251,7 +20505,7 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B357" s="0">
         <v>356</v>
@@ -20303,7 +20557,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B358" s="0">
         <v>357</v>
@@ -20359,7 +20613,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B359" s="0">
         <v>358</v>
@@ -20415,7 +20669,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B360" s="0">
         <v>359</v>
@@ -20471,7 +20725,7 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B361" s="0">
         <v>360</v>
@@ -20527,7 +20781,7 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B362" s="0">
         <v>361</v>
@@ -20579,7 +20833,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B363" s="0">
         <v>362</v>
@@ -20635,7 +20889,7 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B364" s="0">
         <v>363</v>
@@ -20691,7 +20945,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B365" s="0">
         <v>364</v>
@@ -20747,7 +21001,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B366" s="0">
         <v>365</v>
@@ -20803,7 +21057,7 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B367" s="0">
         <v>366</v>
@@ -20859,7 +21113,7 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B368" s="0">
         <v>367</v>
@@ -20915,7 +21169,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B369" s="0">
         <v>368</v>
@@ -20971,7 +21225,7 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B370" s="0">
         <v>369</v>
@@ -21027,7 +21281,7 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B371" s="0">
         <v>370</v>
@@ -21083,7 +21337,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B372" s="0">
         <v>371</v>
@@ -21139,7 +21393,7 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="B373" s="0">
         <v>372</v>
@@ -21191,7 +21445,7 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B374" s="0">
         <v>373</v>
@@ -21247,7 +21501,7 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B375" s="0">
         <v>374</v>
@@ -21303,7 +21557,7 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B376" s="0">
         <v>375</v>
@@ -21355,7 +21609,7 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B377" s="0">
         <v>376</v>
@@ -21411,7 +21665,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B378" s="0">
         <v>377</v>
@@ -21467,7 +21721,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B379" s="0">
         <v>378</v>
@@ -21523,7 +21777,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B380" s="0">
         <v>379</v>
@@ -21575,7 +21829,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B381" s="0">
         <v>380</v>
@@ -21631,7 +21885,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B382" s="0">
         <v>381</v>
@@ -21683,7 +21937,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B383" s="0">
         <v>382</v>
@@ -21739,7 +21993,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B384" s="0">
         <v>383</v>
@@ -21795,7 +22049,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B385" s="0">
         <v>384</v>
@@ -21851,7 +22105,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B386" s="0">
         <v>385</v>
@@ -21907,7 +22161,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B387" s="0">
         <v>386</v>
@@ -21963,7 +22217,7 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B388" s="0">
         <v>387</v>
@@ -22019,7 +22273,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B389" s="0">
         <v>388</v>
@@ -22071,7 +22325,7 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="B390" s="0">
         <v>389</v>
@@ -22127,7 +22381,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="B391" s="0">
         <v>390</v>
@@ -22183,7 +22437,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="B392" s="0">
         <v>391</v>
@@ -22239,7 +22493,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="B393" s="0">
         <v>392</v>
@@ -22295,7 +22549,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B394" s="0">
         <v>393</v>
@@ -22347,7 +22601,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B395" s="0">
         <v>394</v>
@@ -22403,7 +22657,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B396" s="0">
         <v>395</v>
@@ -22459,7 +22713,7 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B397" s="0">
         <v>396</v>
@@ -22515,7 +22769,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B398" s="0">
         <v>397</v>
@@ -22567,7 +22821,7 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B399" s="0">
         <v>398</v>
@@ -22619,7 +22873,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B400" s="0">
         <v>399</v>
@@ -22671,7 +22925,7 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B401" s="0">
         <v>400</v>
@@ -22727,7 +22981,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B402" s="0">
         <v>401</v>
@@ -22783,7 +23037,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B403" s="0">
         <v>402</v>
@@ -22839,7 +23093,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B404" s="0">
         <v>403</v>
@@ -22895,7 +23149,7 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B405" s="0">
         <v>404</v>
@@ -22951,7 +23205,7 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B406" s="0">
         <v>405</v>
@@ -23007,7 +23261,7 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B407" s="0">
         <v>406</v>
@@ -23063,7 +23317,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B408" s="0">
         <v>407</v>
@@ -23119,7 +23373,7 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B409" s="0">
         <v>408</v>
@@ -23175,7 +23429,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B410" s="0">
         <v>409</v>
@@ -23231,7 +23485,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B411" s="0">
         <v>410</v>
@@ -23287,7 +23541,7 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B412" s="0">
         <v>411</v>
@@ -23343,7 +23597,7 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B413" s="0">
         <v>412</v>
@@ -23395,7 +23649,7 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B414" s="0">
         <v>413</v>
@@ -23451,7 +23705,7 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B415" s="0">
         <v>414</v>
@@ -23503,7 +23757,7 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B416" s="0">
         <v>415</v>
@@ -23559,7 +23813,7 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B417" s="0">
         <v>416</v>
@@ -23615,7 +23869,7 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B418" s="0">
         <v>417</v>
@@ -23667,7 +23921,7 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B419" s="0">
         <v>418</v>
@@ -23719,7 +23973,7 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B420" s="0">
         <v>419</v>
@@ -23771,7 +24025,7 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B421" s="0">
         <v>420</v>
@@ -23823,7 +24077,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B422" s="0">
         <v>421</v>
@@ -23875,7 +24129,7 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B423" s="0">
         <v>422</v>
@@ -23931,7 +24185,7 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B424" s="0">
         <v>423</v>
@@ -23983,7 +24237,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B425" s="0">
         <v>424</v>
@@ -24039,7 +24293,7 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B426" s="0">
         <v>425</v>
@@ -24091,7 +24345,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B427" s="0">
         <v>426</v>
@@ -24143,7 +24397,7 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B428" s="0">
         <v>427</v>
@@ -24199,7 +24453,7 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B429" s="0">
         <v>428</v>
@@ -24255,7 +24509,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="B430" s="0">
         <v>429</v>
@@ -24307,7 +24561,7 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B431" s="0">
         <v>430</v>
@@ -24359,7 +24613,7 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B432" s="0">
         <v>431</v>
@@ -24411,7 +24665,7 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B433" s="0">
         <v>432</v>
@@ -24463,7 +24717,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B434" s="0">
         <v>433</v>
@@ -24515,7 +24769,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B435" s="0">
         <v>434</v>
@@ -24567,7 +24821,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B436" s="0">
         <v>435</v>
@@ -24619,7 +24873,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B437" s="0">
         <v>436</v>
@@ -24671,7 +24925,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B438" s="0">
         <v>437</v>
@@ -24727,7 +24981,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B439" s="0">
         <v>438</v>
@@ -24779,7 +25033,7 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B440" s="0">
         <v>439</v>
@@ -24831,7 +25085,7 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B441" s="0">
         <v>440</v>
@@ -24887,7 +25141,7 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B442" s="0">
         <v>441</v>
@@ -24939,7 +25193,7 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B443" s="0">
         <v>442</v>
@@ -24995,7 +25249,7 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B444" s="0">
         <v>443</v>
@@ -25047,7 +25301,7 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B445" s="0">
         <v>444</v>
@@ -25103,7 +25357,7 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B446" s="0">
         <v>445</v>
@@ -25155,7 +25409,7 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B447" s="0">
         <v>446</v>
@@ -25211,7 +25465,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B448" s="0">
         <v>447</v>
@@ -25263,7 +25517,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B449" s="0">
         <v>448</v>
@@ -25315,7 +25569,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B450" s="0">
         <v>449</v>
@@ -25367,7 +25621,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B451" s="0">
         <v>450</v>
@@ -25419,7 +25673,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B452" s="0">
         <v>451</v>
@@ -25475,7 +25729,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B453" s="0">
         <v>452</v>
@@ -25527,7 +25781,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B454" s="0">
         <v>453</v>
@@ -25579,7 +25833,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B455" s="0">
         <v>454</v>
@@ -25631,7 +25885,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B456" s="0">
         <v>455</v>
@@ -25683,7 +25937,7 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B457" s="0">
         <v>456</v>
@@ -25735,7 +25989,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B458" s="0">
         <v>457</v>
@@ -25791,7 +26045,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B459" s="0">
         <v>458</v>
@@ -25843,7 +26097,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B460" s="0">
         <v>459</v>
@@ -25895,7 +26149,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B461" s="0">
         <v>460</v>
@@ -25947,7 +26201,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B462" s="0">
         <v>461</v>
@@ -25999,7 +26253,7 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B463" s="0">
         <v>462</v>
@@ -26055,7 +26309,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B464" s="0">
         <v>463</v>
@@ -26107,7 +26361,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B465" s="0">
         <v>464</v>
@@ -26159,7 +26413,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B466" s="0">
         <v>465</v>
@@ -26215,7 +26469,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B467" s="0">
         <v>466</v>
@@ -26267,7 +26521,7 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B468" s="0">
         <v>467</v>
@@ -26319,7 +26573,7 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B469" s="0">
         <v>468</v>
@@ -26375,7 +26629,7 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B470" s="0">
         <v>469</v>
@@ -26427,7 +26681,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="B471" s="0">
         <v>470</v>
@@ -26479,7 +26733,7 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
       <c r="B472" s="0">
         <v>471</v>
@@ -26535,7 +26789,7 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B473" s="0">
         <v>472</v>
@@ -26587,7 +26841,7 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B474" s="0">
         <v>473</v>
@@ -26643,7 +26897,7 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B475" s="0">
         <v>474</v>
@@ -26695,7 +26949,7 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B476" s="0">
         <v>475</v>
@@ -26747,7 +27001,7 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B477" s="0">
         <v>476</v>
@@ -26799,7 +27053,7 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B478" s="0">
         <v>477</v>
@@ -26851,7 +27105,7 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B479" s="0">
         <v>478</v>
@@ -26903,7 +27157,7 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B480" s="0">
         <v>479</v>
@@ -26959,7 +27213,7 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B481" s="0">
         <v>480</v>
@@ -27015,7 +27269,7 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="B482" s="0">
         <v>481</v>
@@ -27067,7 +27321,7 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="B483" s="0">
         <v>482</v>
@@ -27123,7 +27377,7 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="B484" s="0">
         <v>483</v>
@@ -27179,7 +27433,7 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="B485" s="0">
         <v>484</v>
@@ -27235,7 +27489,7 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B486" s="0">
         <v>485</v>
@@ -27291,7 +27545,7 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B487" s="0">
         <v>486</v>
@@ -27347,7 +27601,7 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B488" s="0">
         <v>487</v>
@@ -27403,7 +27657,7 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B489" s="0">
         <v>488</v>
@@ -27459,7 +27713,7 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="B490" s="0">
         <v>489</v>
@@ -27515,7 +27769,7 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B491" s="0">
         <v>490</v>
@@ -27571,7 +27825,7 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B492" s="0">
         <v>491</v>
@@ -27627,7 +27881,7 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B493" s="0">
         <v>492</v>
@@ -27683,7 +27937,7 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="B494" s="0">
         <v>493</v>
@@ -27739,7 +27993,7 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="B495" s="0">
         <v>494</v>
@@ -27791,7 +28045,7 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="B496" s="0">
         <v>495</v>
@@ -27847,7 +28101,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B497" s="0">
         <v>496</v>
@@ -27903,7 +28157,7 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B498" s="0">
         <v>497</v>
@@ -27959,7 +28213,7 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="B499" s="0">
         <v>498</v>
@@ -28015,7 +28269,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="B500" s="0">
         <v>499</v>
@@ -28071,7 +28325,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="B501" s="0">
         <v>500</v>
@@ -28123,7 +28377,7 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B502" s="0">
         <v>501</v>
@@ -28175,7 +28429,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B503" s="0">
         <v>502</v>
@@ -28227,7 +28481,7 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B504" s="0">
         <v>503</v>
@@ -28279,7 +28533,7 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B505" s="0">
         <v>504</v>
@@ -28335,7 +28589,7 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B506" s="0">
         <v>505</v>
@@ -28391,7 +28645,7 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B507" s="0">
         <v>506</v>
@@ -28447,7 +28701,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B508" s="0">
         <v>507</v>
@@ -28503,7 +28757,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="B509" s="0">
         <v>508</v>
@@ -28559,7 +28813,7 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="B510" s="0">
         <v>509</v>
@@ -28615,7 +28869,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="B511" s="0">
         <v>510</v>
@@ -28671,7 +28925,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B512" s="0">
         <v>511</v>
@@ -28727,7 +28981,7 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B513" s="0">
         <v>512</v>
@@ -28783,7 +29037,7 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B514" s="0">
         <v>513</v>
@@ -28839,7 +29093,7 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B515" s="0">
         <v>514</v>
@@ -28895,7 +29149,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B516" s="0">
         <v>515</v>
@@ -28951,7 +29205,7 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="B517" s="0">
         <v>516</v>
@@ -29007,7 +29261,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="B518" s="0">
         <v>517</v>
@@ -29059,7 +29313,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B519" s="0">
         <v>518</v>
@@ -29115,7 +29369,7 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B520" s="0">
         <v>519</v>
@@ -29167,7 +29421,7 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B521" s="0">
         <v>520</v>
@@ -29223,7 +29477,7 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B522" s="0">
         <v>521</v>
@@ -29275,7 +29529,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B523" s="0">
         <v>522</v>
@@ -29327,7 +29581,7 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B524" s="0">
         <v>523</v>
@@ -29379,7 +29633,7 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B525" s="0">
         <v>524</v>
@@ -29435,7 +29689,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B526" s="0">
         <v>525</v>
@@ -29487,7 +29741,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B527" s="0">
         <v>526</v>
@@ -29543,7 +29797,7 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B528" s="0">
         <v>527</v>
@@ -29599,7 +29853,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B529" s="0">
         <v>528</v>
@@ -29655,7 +29909,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B530" s="0">
         <v>529</v>
@@ -29707,7 +29961,7 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B531" s="0">
         <v>530</v>
@@ -29763,7 +30017,7 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B532" s="0">
         <v>531</v>
@@ -29815,7 +30069,7 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B533" s="0">
         <v>532</v>
@@ -29871,7 +30125,7 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B534" s="0">
         <v>533</v>
@@ -29923,7 +30177,7 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="B535" s="0">
         <v>534</v>
@@ -29979,7 +30233,7 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B536" s="0">
         <v>535</v>
@@ -30035,7 +30289,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B537" s="0">
         <v>536</v>
@@ -30091,7 +30345,7 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B538" s="0">
         <v>537</v>
@@ -30147,7 +30401,7 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="B539" s="0">
         <v>538</v>
@@ -30203,7 +30457,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="B540" s="0">
         <v>539</v>
@@ -30255,7 +30509,7 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="B541" s="0">
         <v>540</v>
@@ -30311,7 +30565,7 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B542" s="0">
         <v>541</v>
@@ -30367,7 +30621,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B543" s="0">
         <v>542</v>
@@ -30423,7 +30677,7 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B544" s="0">
         <v>543</v>
@@ -30479,7 +30733,7 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B545" s="0">
         <v>544</v>
@@ -30531,7 +30785,7 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B546" s="0">
         <v>545</v>
@@ -30587,7 +30841,7 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B547" s="0">
         <v>546</v>
@@ -30639,7 +30893,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B548" s="0">
         <v>547</v>
@@ -30695,7 +30949,7 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B549" s="0">
         <v>548</v>
@@ -30747,7 +31001,7 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B550" s="0">
         <v>549</v>
@@ -30803,7 +31057,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B551" s="0">
         <v>550</v>
@@ -30855,7 +31109,7 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B552" s="0">
         <v>551</v>
@@ -30907,7 +31161,7 @@
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B553" s="0">
         <v>552</v>
@@ -30959,7 +31213,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B554" s="0">
         <v>553</v>
@@ -31015,7 +31269,7 @@
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B555" s="0">
         <v>554</v>
@@ -31067,7 +31321,7 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B556" s="0">
         <v>555</v>
@@ -31123,7 +31377,7 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="B557" s="0">
         <v>556</v>
@@ -31179,7 +31433,7 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B558" s="0">
         <v>557</v>
@@ -31231,7 +31485,7 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B559" s="0">
         <v>558</v>
@@ -31283,7 +31537,7 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B560" s="0">
         <v>559</v>
@@ -31335,7 +31589,7 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B561" s="0">
         <v>560</v>
@@ -31387,7 +31641,7 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B562" s="0">
         <v>561</v>
@@ -31439,7 +31693,7 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B563" s="0">
         <v>562</v>
@@ -31491,7 +31745,7 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B564" s="0">
         <v>563</v>
@@ -31543,7 +31797,7 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B565" s="0">
         <v>564</v>
@@ -31595,7 +31849,7 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B566" s="0">
         <v>565</v>
@@ -31647,7 +31901,7 @@
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B567" s="0">
         <v>566</v>
@@ -31703,7 +31957,7 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B568" s="0">
         <v>567</v>
@@ -31755,7 +32009,7 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B569" s="0">
         <v>568</v>
@@ -31807,7 +32061,7 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B570" s="0">
         <v>569</v>
@@ -31859,7 +32113,7 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="B571" s="0">
         <v>570</v>

--- a/processed_data/validation_data/kmeans_results.xlsx
+++ b/processed_data/validation_data/kmeans_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="440">
   <si>
     <t>fname</t>
   </si>
@@ -322,6 +322,258 @@
   </si>
   <si>
     <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0047.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0058.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0061.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0062.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0003.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0037.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0038.tif</t>
+  </si>
+  <si>
+    <t>c3_346a_2247K_4.5atm_0040.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0011.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0019.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0020.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0022.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0026.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0034.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0035.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0051.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0054.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0055.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0057.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0058.tif</t>
+  </si>
+  <si>
+    <t>c3_347a_2132K_4.2atm_0060.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0002.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0004.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0005.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0010.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0015.tif</t>
+  </si>
+  <si>
+    <t>c3_348b_1875K_4.5atm_0016.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0023.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0027.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0028.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0029.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0030.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0033.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0043.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0044.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0046.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0048.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0053.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0056.tif</t>
+  </si>
+  <si>
+    <t>c3_349a_1984K_4.3atm_0057.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
   </si>
   <si>
     <t>dp</t>
@@ -1101,7 +1353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1113,16 +1365,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,63 +1411,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>351</v>
+        <v>435</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -1269,7 +1523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
@@ -1325,7 +1579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -1377,7 +1631,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
@@ -1433,7 +1687,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
@@ -1489,7 +1743,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -1545,7 +1799,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
@@ -1601,7 +1855,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -1657,7 +1911,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
@@ -1713,7 +1967,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -1769,7 +2023,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
@@ -1825,7 +2079,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1881,7 +2135,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1937,7 +2191,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
@@ -1993,7 +2247,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
@@ -2049,7 +2303,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
@@ -2101,7 +2355,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
@@ -2157,7 +2411,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
@@ -2209,7 +2463,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
@@ -2261,7 +2515,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -2317,7 +2571,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -2373,7 +2627,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -2425,7 +2679,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
@@ -2477,7 +2731,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
@@ -2533,7 +2787,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
@@ -2589,7 +2843,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
@@ -2641,7 +2895,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
@@ -2697,7 +2951,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
@@ -2753,7 +3007,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
@@ -2809,7 +3063,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
@@ -2861,7 +3115,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2913,7 +3167,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2969,7 +3223,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -3025,7 +3279,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -3077,7 +3331,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -3129,7 +3383,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -3185,7 +3439,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -3241,7 +3495,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -3297,7 +3551,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -3353,7 +3607,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -3409,7 +3663,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
@@ -3465,7 +3719,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
@@ -3521,7 +3775,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
@@ -3573,7 +3827,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
@@ -3625,7 +3879,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
@@ -3677,7 +3931,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -3729,7 +3983,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -3781,7 +4035,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3837,7 +4091,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3889,7 +4143,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3941,7 +4195,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
@@ -3997,7 +4251,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
@@ -4053,7 +4307,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
@@ -4109,7 +4363,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
@@ -4161,7 +4415,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
@@ -4213,7 +4467,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
@@ -4269,7 +4523,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
@@ -4325,7 +4579,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
@@ -4381,7 +4635,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
@@ -4433,7 +4687,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
@@ -4485,7 +4739,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
@@ -4541,7 +4795,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
@@ -4593,7 +4847,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
@@ -4649,7 +4903,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
@@ -4701,7 +4955,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
@@ -4757,7 +5011,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
@@ -4809,7 +5063,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
@@ -4861,7 +5115,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
@@ -4913,7 +5167,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
@@ -4965,7 +5219,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
@@ -5017,7 +5271,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
@@ -5073,7 +5327,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
@@ -5129,7 +5383,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
@@ -5181,7 +5435,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
@@ -5233,7 +5487,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
@@ -5289,7 +5543,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
@@ -5345,7 +5599,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
@@ -5401,7 +5655,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
@@ -5457,7 +5711,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
@@ -5513,7 +5767,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
@@ -5569,7 +5823,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
@@ -5625,7 +5879,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
@@ -5681,7 +5935,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
@@ -5737,7 +5991,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
@@ -5793,7 +6047,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
@@ -5849,7 +6103,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
@@ -5905,7 +6159,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
@@ -5957,7 +6211,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
@@ -6013,7 +6267,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
@@ -6069,7 +6323,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
@@ -6121,7 +6375,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
@@ -6173,7 +6427,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
@@ -6229,7 +6483,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B94" s="0">
         <v>93</v>
@@ -6285,7 +6539,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B95" s="0">
         <v>94</v>
@@ -6341,7 +6595,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B96" s="0">
         <v>95</v>
@@ -6393,7 +6647,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B97" s="0">
         <v>96</v>
@@ -6449,7 +6703,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B98" s="0">
         <v>97</v>
@@ -6505,7 +6759,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B99" s="0">
         <v>98</v>
@@ -6557,7 +6811,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B100" s="0">
         <v>99</v>
@@ -6613,7 +6867,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B101" s="0">
         <v>100</v>
@@ -6669,7 +6923,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B102" s="0">
         <v>101</v>
@@ -6721,7 +6975,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B103" s="0">
         <v>102</v>
@@ -6773,7 +7027,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B104" s="0">
         <v>103</v>
@@ -6829,7 +7083,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="B105" s="0">
         <v>104</v>
@@ -6881,7 +7135,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B106" s="0">
         <v>105</v>
@@ -6933,7 +7187,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B107" s="0">
         <v>106</v>
@@ -6989,7 +7243,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B108" s="0">
         <v>107</v>
@@ -7045,7 +7299,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B109" s="0">
         <v>108</v>
@@ -7101,7 +7355,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B110" s="0">
         <v>109</v>
@@ -7157,7 +7411,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B111" s="0">
         <v>110</v>
@@ -7209,7 +7463,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B112" s="0">
         <v>111</v>
@@ -7265,7 +7519,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="B113" s="0">
         <v>112</v>
@@ -7321,7 +7575,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="B114" s="0">
         <v>113</v>
@@ -7377,7 +7631,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="B115" s="0">
         <v>114</v>
@@ -7429,7 +7683,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="B116" s="0">
         <v>115</v>
@@ -7485,7 +7739,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="B117" s="0">
         <v>116</v>
@@ -7541,7 +7795,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="B118" s="0">
         <v>117</v>
@@ -7593,7 +7847,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="B119" s="0">
         <v>118</v>
@@ -7649,7 +7903,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="B120" s="0">
         <v>119</v>
@@ -7701,7 +7955,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="B121" s="0">
         <v>120</v>
@@ -7753,7 +8007,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="B122" s="0">
         <v>121</v>
@@ -7809,7 +8063,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B123" s="0">
         <v>122</v>
@@ -7865,7 +8119,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B124" s="0">
         <v>123</v>
@@ -7921,7 +8175,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B125" s="0">
         <v>124</v>
@@ -7977,7 +8231,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B126" s="0">
         <v>125</v>
@@ -8033,7 +8287,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B127" s="0">
         <v>126</v>
@@ -8089,7 +8343,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B128" s="0">
         <v>127</v>
@@ -8145,7 +8399,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B129" s="0">
         <v>128</v>
@@ -8197,7 +8451,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B130" s="0">
         <v>129</v>
@@ -8249,7 +8503,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B131" s="0">
         <v>130</v>
@@ -8301,7 +8555,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B132" s="0">
         <v>131</v>
@@ -8357,7 +8611,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B133" s="0">
         <v>132</v>
@@ -8409,7 +8663,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B134" s="0">
         <v>133</v>
@@ -8461,7 +8715,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B135" s="0">
         <v>134</v>
@@ -8513,7 +8767,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B136" s="0">
         <v>135</v>
@@ -8569,7 +8823,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B137" s="0">
         <v>136</v>
@@ -8621,7 +8875,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B138" s="0">
         <v>137</v>
@@ -8677,7 +8931,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B139" s="0">
         <v>138</v>
@@ -8729,7 +8983,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B140" s="0">
         <v>139</v>
@@ -8785,7 +9039,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B141" s="0">
         <v>140</v>
@@ -8841,7 +9095,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B142" s="0">
         <v>141</v>
@@ -8893,7 +9147,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B143" s="0">
         <v>142</v>
@@ -8945,7 +9199,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B144" s="0">
         <v>143</v>
@@ -9001,7 +9255,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B145" s="0">
         <v>144</v>
@@ -9053,7 +9307,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B146" s="0">
         <v>145</v>
@@ -9105,7 +9359,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="B147" s="0">
         <v>146</v>
@@ -9157,7 +9411,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="B148" s="0">
         <v>147</v>
@@ -9213,7 +9467,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B149" s="0">
         <v>148</v>
@@ -9269,7 +9523,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B150" s="0">
         <v>149</v>
@@ -9321,7 +9575,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B151" s="0">
         <v>150</v>
@@ -9377,7 +9631,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B152" s="0">
         <v>151</v>
@@ -9433,7 +9687,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B153" s="0">
         <v>152</v>
@@ -9485,7 +9739,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B154" s="0">
         <v>153</v>
@@ -9537,7 +9791,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B155" s="0">
         <v>154</v>
@@ -9589,7 +9843,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B156" s="0">
         <v>155</v>
@@ -9641,7 +9895,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B157" s="0">
         <v>156</v>
@@ -9693,7 +9947,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
       <c r="B158" s="0">
         <v>157</v>
@@ -9749,7 +10003,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B159" s="0">
         <v>158</v>
@@ -9805,7 +10059,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B160" s="0">
         <v>159</v>
@@ -9857,7 +10111,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B161" s="0">
         <v>160</v>
@@ -9913,7 +10167,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B162" s="0">
         <v>161</v>
@@ -9969,7 +10223,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B163" s="0">
         <v>162</v>
@@ -10025,7 +10279,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B164" s="0">
         <v>163</v>
@@ -10081,7 +10335,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B165" s="0">
         <v>164</v>
@@ -10137,7 +10391,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B166" s="0">
         <v>165</v>
@@ -10193,7 +10447,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B167" s="0">
         <v>166</v>
@@ -10245,7 +10499,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B168" s="0">
         <v>167</v>
@@ -10297,7 +10551,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B169" s="0">
         <v>168</v>
@@ -10353,7 +10607,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B170" s="0">
         <v>169</v>
@@ -10409,7 +10663,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B171" s="0">
         <v>170</v>
@@ -10465,7 +10719,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B172" s="0">
         <v>171</v>
@@ -10521,7 +10775,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B173" s="0">
         <v>172</v>
@@ -10577,7 +10831,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B174" s="0">
         <v>173</v>
@@ -10629,7 +10883,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B175" s="0">
         <v>174</v>
@@ -10685,7 +10939,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B176" s="0">
         <v>175</v>
@@ -10737,7 +10991,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B177" s="0">
         <v>176</v>
@@ -10793,7 +11047,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B178" s="0">
         <v>177</v>
@@ -10849,7 +11103,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B179" s="0">
         <v>178</v>
@@ -10905,7 +11159,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B180" s="0">
         <v>179</v>
@@ -10957,7 +11211,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B181" s="0">
         <v>180</v>
@@ -11013,7 +11267,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B182" s="0">
         <v>181</v>
@@ -11069,7 +11323,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B183" s="0">
         <v>182</v>
@@ -11125,7 +11379,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B184" s="0">
         <v>183</v>
@@ -11177,7 +11431,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B185" s="0">
         <v>184</v>
@@ -11229,7 +11483,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B186" s="0">
         <v>185</v>
@@ -11281,7 +11535,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B187" s="0">
         <v>186</v>
@@ -11337,7 +11591,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B188" s="0">
         <v>187</v>
@@ -11393,7 +11647,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="B189" s="0">
         <v>188</v>
@@ -11449,7 +11703,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B190" s="0">
         <v>189</v>
@@ -11501,7 +11755,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B191" s="0">
         <v>190</v>
@@ -11557,7 +11811,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B192" s="0">
         <v>191</v>
@@ -11613,7 +11867,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B193" s="0">
         <v>192</v>
@@ -11669,7 +11923,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B194" s="0">
         <v>193</v>
@@ -11725,7 +11979,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B195" s="0">
         <v>194</v>
@@ -11777,7 +12031,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B196" s="0">
         <v>195</v>
@@ -11833,7 +12087,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B197" s="0">
         <v>196</v>
@@ -11889,7 +12143,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B198" s="0">
         <v>197</v>
@@ -11945,7 +12199,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B199" s="0">
         <v>198</v>
@@ -12001,7 +12255,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B200" s="0">
         <v>199</v>
@@ -12057,7 +12311,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B201" s="0">
         <v>200</v>
@@ -12113,7 +12367,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B202" s="0">
         <v>201</v>
@@ -12169,7 +12423,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="B203" s="0">
         <v>202</v>
@@ -12225,7 +12479,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B204" s="0">
         <v>203</v>
@@ -12281,7 +12535,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B205" s="0">
         <v>204</v>
@@ -12337,7 +12591,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B206" s="0">
         <v>205</v>
@@ -12389,7 +12643,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B207" s="0">
         <v>206</v>
@@ -12445,7 +12699,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B208" s="0">
         <v>207</v>
@@ -12497,7 +12751,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B209" s="0">
         <v>208</v>
@@ -12553,7 +12807,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B210" s="0">
         <v>209</v>
@@ -12609,7 +12863,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B211" s="0">
         <v>210</v>
@@ -12665,7 +12919,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B212" s="0">
         <v>211</v>
@@ -12717,7 +12971,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B213" s="0">
         <v>212</v>
@@ -12769,7 +13023,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B214" s="0">
         <v>213</v>
@@ -12821,7 +13075,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B215" s="0">
         <v>214</v>
@@ -12877,7 +13131,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B216" s="0">
         <v>215</v>
@@ -12929,7 +13183,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B217" s="0">
         <v>216</v>
@@ -12985,7 +13239,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B218" s="0">
         <v>217</v>
@@ -13041,7 +13295,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B219" s="0">
         <v>218</v>
@@ -13097,7 +13351,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B220" s="0">
         <v>219</v>
@@ -13153,7 +13407,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B221" s="0">
         <v>220</v>
@@ -13209,7 +13463,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B222" s="0">
         <v>221</v>
@@ -13265,7 +13519,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B223" s="0">
         <v>222</v>
@@ -13321,7 +13575,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B224" s="0">
         <v>223</v>
@@ -13377,7 +13631,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B225" s="0">
         <v>224</v>
@@ -13433,7 +13687,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B226" s="0">
         <v>225</v>
@@ -13489,7 +13743,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B227" s="0">
         <v>226</v>
@@ -13545,7 +13799,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B228" s="0">
         <v>227</v>
@@ -13601,7 +13855,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B229" s="0">
         <v>228</v>
@@ -13657,7 +13911,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B230" s="0">
         <v>229</v>
@@ -13713,7 +13967,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="B231" s="0">
         <v>230</v>
@@ -13765,7 +14019,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="B232" s="0">
         <v>231</v>
@@ -13821,7 +14075,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="B233" s="0">
         <v>232</v>
@@ -13877,7 +14131,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="B234" s="0">
         <v>233</v>
@@ -13933,7 +14187,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="B235" s="0">
         <v>234</v>
@@ -13989,7 +14243,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B236" s="0">
         <v>235</v>
@@ -14045,7 +14299,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B237" s="0">
         <v>236</v>
@@ -14101,7 +14355,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B238" s="0">
         <v>237</v>
@@ -14153,7 +14407,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B239" s="0">
         <v>238</v>
@@ -14205,7 +14459,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B240" s="0">
         <v>239</v>
@@ -14257,7 +14511,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B241" s="0">
         <v>240</v>
@@ -14313,7 +14567,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B242" s="0">
         <v>241</v>
@@ -14369,7 +14623,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="B243" s="0">
         <v>242</v>
@@ -14421,7 +14675,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B244" s="0">
         <v>243</v>
@@ -14477,7 +14731,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B245" s="0">
         <v>244</v>
@@ -14533,7 +14787,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B246" s="0">
         <v>245</v>
@@ -14589,7 +14843,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B247" s="0">
         <v>246</v>
@@ -14645,7 +14899,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B248" s="0">
         <v>247</v>
@@ -14697,7 +14951,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B249" s="0">
         <v>248</v>
@@ -14749,7 +15003,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B250" s="0">
         <v>249</v>
@@ -14805,7 +15059,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B251" s="0">
         <v>250</v>
@@ -14861,7 +15115,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B252" s="0">
         <v>251</v>
@@ -14917,7 +15171,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B253" s="0">
         <v>252</v>
@@ -14969,7 +15223,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B254" s="0">
         <v>253</v>
@@ -15021,7 +15275,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="B255" s="0">
         <v>254</v>
@@ -15073,7 +15327,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="B256" s="0">
         <v>255</v>
@@ -15129,7 +15383,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="B257" s="0">
         <v>256</v>
@@ -15181,7 +15435,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B258" s="0">
         <v>257</v>
@@ -15233,7 +15487,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B259" s="0">
         <v>258</v>
@@ -15285,7 +15539,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B260" s="0">
         <v>259</v>
@@ -15337,7 +15591,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B261" s="0">
         <v>260</v>
@@ -15389,7 +15643,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B262" s="0">
         <v>261</v>
@@ -15445,7 +15699,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B263" s="0">
         <v>262</v>
@@ -15497,7 +15751,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B264" s="0">
         <v>263</v>
@@ -15553,7 +15807,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B265" s="0">
         <v>264</v>
@@ -15605,7 +15859,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B266" s="0">
         <v>265</v>
@@ -15661,7 +15915,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B267" s="0">
         <v>266</v>
@@ -15713,7 +15967,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B268" s="0">
         <v>267</v>
@@ -15765,7 +16019,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="B269" s="0">
         <v>268</v>
@@ -15817,7 +16071,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B270" s="0">
         <v>269</v>
@@ -15873,7 +16127,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B271" s="0">
         <v>270</v>
@@ -15929,7 +16183,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B272" s="0">
         <v>271</v>
@@ -15981,7 +16235,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B273" s="0">
         <v>272</v>
@@ -16037,7 +16291,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B274" s="0">
         <v>273</v>
@@ -16089,7 +16343,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B275" s="0">
         <v>274</v>
@@ -16141,7 +16395,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B276" s="0">
         <v>275</v>
@@ -16197,7 +16451,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B277" s="0">
         <v>276</v>
@@ -16253,7 +16507,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B278" s="0">
         <v>277</v>
@@ -16309,7 +16563,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B279" s="0">
         <v>278</v>
@@ -16365,7 +16619,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B280" s="0">
         <v>279</v>
@@ -16421,7 +16675,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B281" s="0">
         <v>280</v>
@@ -16477,7 +16731,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="B282" s="0">
         <v>281</v>
@@ -16533,7 +16787,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B283" s="0">
         <v>282</v>
@@ -16589,7 +16843,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B284" s="0">
         <v>283</v>
@@ -16641,7 +16895,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B285" s="0">
         <v>284</v>
@@ -16697,7 +16951,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B286" s="0">
         <v>285</v>
@@ -16749,7 +17003,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B287" s="0">
         <v>286</v>
@@ -16801,7 +17055,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B288" s="0">
         <v>287</v>
@@ -16857,7 +17111,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B289" s="0">
         <v>288</v>
@@ -16913,7 +17167,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B290" s="0">
         <v>289</v>
@@ -16965,7 +17219,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B291" s="0">
         <v>290</v>
@@ -17017,7 +17271,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="B292" s="0">
         <v>291</v>
@@ -17069,7 +17323,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B293" s="0">
         <v>292</v>
@@ -17125,7 +17379,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B294" s="0">
         <v>293</v>
@@ -17177,7 +17431,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B295" s="0">
         <v>294</v>
@@ -17229,7 +17483,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B296" s="0">
         <v>295</v>
@@ -17285,7 +17539,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B297" s="0">
         <v>296</v>
@@ -17341,7 +17595,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B298" s="0">
         <v>297</v>
@@ -17397,7 +17651,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B299" s="0">
         <v>298</v>
@@ -17449,7 +17703,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B300" s="0">
         <v>299</v>
@@ -17501,7 +17755,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B301" s="0">
         <v>300</v>
@@ -17557,7 +17811,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B302" s="0">
         <v>301</v>
@@ -17609,7 +17863,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B303" s="0">
         <v>302</v>
@@ -17661,7 +17915,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B304" s="0">
         <v>303</v>
@@ -17713,7 +17967,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B305" s="0">
         <v>304</v>
@@ -17765,7 +18019,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B306" s="0">
         <v>305</v>
@@ -17817,7 +18071,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B307" s="0">
         <v>306</v>
@@ -17869,7 +18123,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B308" s="0">
         <v>307</v>
@@ -17921,7 +18175,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B309" s="0">
         <v>308</v>
@@ -17973,7 +18227,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
       <c r="B310" s="0">
         <v>309</v>
@@ -18025,7 +18279,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B311" s="0">
         <v>310</v>
@@ -18081,7 +18335,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B312" s="0">
         <v>311</v>
@@ -18133,7 +18387,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B313" s="0">
         <v>312</v>
@@ -18185,7 +18439,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B314" s="0">
         <v>313</v>
@@ -18241,7 +18495,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B315" s="0">
         <v>314</v>
@@ -18297,7 +18551,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B316" s="0">
         <v>315</v>
@@ -18349,7 +18603,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B317" s="0">
         <v>316</v>
@@ -18401,7 +18655,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B318" s="0">
         <v>317</v>
@@ -18457,7 +18711,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B319" s="0">
         <v>318</v>
@@ -18509,7 +18763,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B320" s="0">
         <v>319</v>
@@ -18561,7 +18815,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B321" s="0">
         <v>320</v>
@@ -18617,7 +18871,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B322" s="0">
         <v>321</v>
@@ -18669,7 +18923,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B323" s="0">
         <v>322</v>
@@ -18725,7 +18979,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B324" s="0">
         <v>323</v>
@@ -18781,7 +19035,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B325" s="0">
         <v>324</v>
@@ -18833,7 +19087,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B326" s="0">
         <v>325</v>
@@ -18889,7 +19143,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B327" s="0">
         <v>326</v>
@@ -18945,7 +19199,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B328" s="0">
         <v>327</v>
@@ -18997,7 +19251,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B329" s="0">
         <v>328</v>
@@ -19049,7 +19303,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B330" s="0">
         <v>329</v>
@@ -19101,7 +19355,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B331" s="0">
         <v>330</v>
@@ -19153,7 +19407,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B332" s="0">
         <v>331</v>
@@ -19209,7 +19463,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B333" s="0">
         <v>332</v>
@@ -19265,7 +19519,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B334" s="0">
         <v>333</v>
@@ -19321,7 +19575,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B335" s="0">
         <v>334</v>
@@ -19373,7 +19627,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B336" s="0">
         <v>335</v>
@@ -19429,7 +19683,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B337" s="0">
         <v>336</v>
@@ -19485,7 +19739,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B338" s="0">
         <v>337</v>
@@ -19537,7 +19791,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B339" s="0">
         <v>338</v>
@@ -19589,7 +19843,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B340" s="0">
         <v>339</v>
@@ -19641,7 +19895,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B341" s="0">
         <v>340</v>
@@ -19693,7 +19947,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B342" s="0">
         <v>341</v>
@@ -19749,7 +20003,7 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B343" s="0">
         <v>342</v>
@@ -19801,7 +20055,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B344" s="0">
         <v>343</v>
@@ -19853,7 +20107,7 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B345" s="0">
         <v>344</v>
@@ -19909,7 +20163,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B346" s="0">
         <v>345</v>
@@ -19965,7 +20219,7 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B347" s="0">
         <v>346</v>
@@ -20017,7 +20271,7 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B348" s="0">
         <v>347</v>
@@ -20073,7 +20327,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B349" s="0">
         <v>348</v>
@@ -20125,7 +20379,7 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B350" s="0">
         <v>349</v>
@@ -20177,7 +20431,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B351" s="0">
         <v>350</v>
@@ -20229,7 +20483,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="B352" s="0">
         <v>351</v>
@@ -20285,7 +20539,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="B353" s="0">
         <v>352</v>
@@ -20341,7 +20595,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="B354" s="0">
         <v>353</v>
@@ -20393,7 +20647,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="B355" s="0">
         <v>354</v>
@@ -20449,7 +20703,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="B356" s="0">
         <v>355</v>
@@ -20505,7 +20759,7 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B357" s="0">
         <v>356</v>
@@ -20557,7 +20811,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B358" s="0">
         <v>357</v>
@@ -20613,7 +20867,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B359" s="0">
         <v>358</v>
@@ -20669,7 +20923,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B360" s="0">
         <v>359</v>
@@ -20725,7 +20979,7 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B361" s="0">
         <v>360</v>
@@ -20781,7 +21035,7 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B362" s="0">
         <v>361</v>
@@ -20833,7 +21087,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B363" s="0">
         <v>362</v>
@@ -20889,7 +21143,7 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B364" s="0">
         <v>363</v>
@@ -20945,7 +21199,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="B365" s="0">
         <v>364</v>
@@ -21001,7 +21255,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B366" s="0">
         <v>365</v>
@@ -21057,7 +21311,7 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B367" s="0">
         <v>366</v>
@@ -21113,7 +21367,7 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B368" s="0">
         <v>367</v>
@@ -21169,7 +21423,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B369" s="0">
         <v>368</v>
@@ -21225,7 +21479,7 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B370" s="0">
         <v>369</v>
@@ -21281,7 +21535,7 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B371" s="0">
         <v>370</v>
@@ -21337,7 +21591,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B372" s="0">
         <v>371</v>
@@ -21393,7 +21647,7 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="B373" s="0">
         <v>372</v>
@@ -21445,7 +21699,7 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B374" s="0">
         <v>373</v>
@@ -21501,7 +21755,7 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B375" s="0">
         <v>374</v>
@@ -21557,7 +21811,7 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B376" s="0">
         <v>375</v>
@@ -21609,7 +21863,7 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B377" s="0">
         <v>376</v>
@@ -21665,7 +21919,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B378" s="0">
         <v>377</v>
@@ -21721,7 +21975,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B379" s="0">
         <v>378</v>
@@ -21777,7 +22031,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B380" s="0">
         <v>379</v>
@@ -21829,7 +22083,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B381" s="0">
         <v>380</v>
@@ -21885,7 +22139,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B382" s="0">
         <v>381</v>
@@ -21937,7 +22191,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B383" s="0">
         <v>382</v>
@@ -21993,7 +22247,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B384" s="0">
         <v>383</v>
@@ -22049,7 +22303,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B385" s="0">
         <v>384</v>
@@ -22105,7 +22359,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B386" s="0">
         <v>385</v>
@@ -22161,7 +22415,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B387" s="0">
         <v>386</v>
@@ -22217,7 +22471,7 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B388" s="0">
         <v>387</v>
@@ -22273,7 +22527,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B389" s="0">
         <v>388</v>
@@ -22325,7 +22579,7 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B390" s="0">
         <v>389</v>
@@ -22381,7 +22635,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B391" s="0">
         <v>390</v>
@@ -22437,7 +22691,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B392" s="0">
         <v>391</v>
@@ -22493,7 +22747,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="B393" s="0">
         <v>392</v>
@@ -22549,7 +22803,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B394" s="0">
         <v>393</v>
@@ -22601,7 +22855,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B395" s="0">
         <v>394</v>
@@ -22657,7 +22911,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B396" s="0">
         <v>395</v>
@@ -22713,7 +22967,7 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B397" s="0">
         <v>396</v>
@@ -22769,7 +23023,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B398" s="0">
         <v>397</v>
@@ -22821,7 +23075,7 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B399" s="0">
         <v>398</v>
@@ -22873,7 +23127,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B400" s="0">
         <v>399</v>
@@ -22925,7 +23179,7 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B401" s="0">
         <v>400</v>
@@ -22981,7 +23235,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B402" s="0">
         <v>401</v>
@@ -23037,7 +23291,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B403" s="0">
         <v>402</v>
@@ -23093,7 +23347,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B404" s="0">
         <v>403</v>
@@ -23149,7 +23403,7 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B405" s="0">
         <v>404</v>
@@ -23205,7 +23459,7 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B406" s="0">
         <v>405</v>
@@ -23261,7 +23515,7 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B407" s="0">
         <v>406</v>
@@ -23317,7 +23571,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B408" s="0">
         <v>407</v>
@@ -23373,7 +23627,7 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B409" s="0">
         <v>408</v>
@@ -23429,7 +23683,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B410" s="0">
         <v>409</v>
@@ -23485,7 +23739,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B411" s="0">
         <v>410</v>
@@ -23541,7 +23795,7 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B412" s="0">
         <v>411</v>
@@ -23597,7 +23851,7 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B413" s="0">
         <v>412</v>
@@ -23649,7 +23903,7 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B414" s="0">
         <v>413</v>
@@ -23705,7 +23959,7 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B415" s="0">
         <v>414</v>
@@ -23757,7 +24011,7 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B416" s="0">
         <v>415</v>
@@ -23813,7 +24067,7 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B417" s="0">
         <v>416</v>
@@ -23869,7 +24123,7 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B418" s="0">
         <v>417</v>
@@ -23921,7 +24175,7 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B419" s="0">
         <v>418</v>
@@ -23973,7 +24227,7 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B420" s="0">
         <v>419</v>
@@ -24025,7 +24279,7 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B421" s="0">
         <v>420</v>
@@ -24077,7 +24331,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B422" s="0">
         <v>421</v>
@@ -24129,7 +24383,7 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B423" s="0">
         <v>422</v>
@@ -24185,7 +24439,7 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B424" s="0">
         <v>423</v>
@@ -24237,7 +24491,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B425" s="0">
         <v>424</v>
@@ -24293,7 +24547,7 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B426" s="0">
         <v>425</v>
@@ -24345,7 +24599,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B427" s="0">
         <v>426</v>
@@ -24397,7 +24651,7 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B428" s="0">
         <v>427</v>
@@ -24453,7 +24707,7 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B429" s="0">
         <v>428</v>
@@ -24509,7 +24763,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B430" s="0">
         <v>429</v>
@@ -24561,7 +24815,7 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B431" s="0">
         <v>430</v>
@@ -24613,7 +24867,7 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B432" s="0">
         <v>431</v>
@@ -24665,7 +24919,7 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B433" s="0">
         <v>432</v>
@@ -24717,7 +24971,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B434" s="0">
         <v>433</v>
@@ -24769,7 +25023,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B435" s="0">
         <v>434</v>
@@ -24821,7 +25075,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B436" s="0">
         <v>435</v>
@@ -24873,7 +25127,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B437" s="0">
         <v>436</v>
@@ -24925,7 +25179,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B438" s="0">
         <v>437</v>
@@ -24981,7 +25235,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B439" s="0">
         <v>438</v>
@@ -25033,7 +25287,7 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B440" s="0">
         <v>439</v>
@@ -25085,7 +25339,7 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B441" s="0">
         <v>440</v>
@@ -25141,7 +25395,7 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B442" s="0">
         <v>441</v>
@@ -25193,7 +25447,7 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B443" s="0">
         <v>442</v>
@@ -25249,7 +25503,7 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B444" s="0">
         <v>443</v>
@@ -25301,7 +25555,7 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B445" s="0">
         <v>444</v>
@@ -25357,7 +25611,7 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B446" s="0">
         <v>445</v>
@@ -25409,7 +25663,7 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B447" s="0">
         <v>446</v>
@@ -25465,7 +25719,7 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B448" s="0">
         <v>447</v>
@@ -25517,7 +25771,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B449" s="0">
         <v>448</v>
@@ -25569,7 +25823,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B450" s="0">
         <v>449</v>
@@ -25621,7 +25875,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B451" s="0">
         <v>450</v>
@@ -25673,7 +25927,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B452" s="0">
         <v>451</v>
@@ -25729,7 +25983,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B453" s="0">
         <v>452</v>
@@ -25781,7 +26035,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B454" s="0">
         <v>453</v>
@@ -25833,7 +26087,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B455" s="0">
         <v>454</v>
@@ -25885,7 +26139,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B456" s="0">
         <v>455</v>
@@ -25937,7 +26191,7 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B457" s="0">
         <v>456</v>
@@ -25989,7 +26243,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B458" s="0">
         <v>457</v>
@@ -26045,7 +26299,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B459" s="0">
         <v>458</v>
@@ -26097,7 +26351,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B460" s="0">
         <v>459</v>
@@ -26149,7 +26403,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B461" s="0">
         <v>460</v>
@@ -26201,7 +26455,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B462" s="0">
         <v>461</v>
@@ -26253,7 +26507,7 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B463" s="0">
         <v>462</v>
@@ -26309,7 +26563,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B464" s="0">
         <v>463</v>
@@ -26361,7 +26615,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B465" s="0">
         <v>464</v>
@@ -26413,7 +26667,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B466" s="0">
         <v>465</v>
@@ -26469,7 +26723,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B467" s="0">
         <v>466</v>
@@ -26521,7 +26775,7 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B468" s="0">
         <v>467</v>
@@ -26573,7 +26827,7 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B469" s="0">
         <v>468</v>
@@ -26629,7 +26883,7 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B470" s="0">
         <v>469</v>
@@ -26681,7 +26935,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B471" s="0">
         <v>470</v>
@@ -26733,7 +26987,7 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="B472" s="0">
         <v>471</v>
@@ -26789,7 +27043,7 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B473" s="0">
         <v>472</v>
@@ -26841,7 +27095,7 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B474" s="0">
         <v>473</v>
@@ -26897,7 +27151,7 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B475" s="0">
         <v>474</v>
@@ -26949,7 +27203,7 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B476" s="0">
         <v>475</v>
@@ -27001,7 +27255,7 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B477" s="0">
         <v>476</v>
@@ -27053,7 +27307,7 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B478" s="0">
         <v>477</v>
@@ -27105,7 +27359,7 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B479" s="0">
         <v>478</v>
@@ -27157,7 +27411,7 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B480" s="0">
         <v>479</v>
@@ -27213,7 +27467,7 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B481" s="0">
         <v>480</v>
@@ -27269,7 +27523,7 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B482" s="0">
         <v>481</v>
@@ -27321,7 +27575,7 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="B483" s="0">
         <v>482</v>
@@ -27377,7 +27631,7 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="B484" s="0">
         <v>483</v>
@@ -27433,7 +27687,7 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="B485" s="0">
         <v>484</v>
@@ -27489,7 +27743,7 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B486" s="0">
         <v>485</v>
@@ -27545,7 +27799,7 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B487" s="0">
         <v>486</v>
@@ -27601,7 +27855,7 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B488" s="0">
         <v>487</v>
@@ -27657,7 +27911,7 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B489" s="0">
         <v>488</v>
@@ -27713,7 +27967,7 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="B490" s="0">
         <v>489</v>
@@ -27769,7 +28023,7 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B491" s="0">
         <v>490</v>
@@ -27825,7 +28079,7 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B492" s="0">
         <v>491</v>
@@ -27881,7 +28135,7 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B493" s="0">
         <v>492</v>
@@ -27937,7 +28191,7 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B494" s="0">
         <v>493</v>
@@ -27993,7 +28247,7 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="B495" s="0">
         <v>494</v>
@@ -28045,7 +28299,7 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="B496" s="0">
         <v>495</v>
@@ -28101,7 +28355,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="B497" s="0">
         <v>496</v>
@@ -28157,7 +28411,7 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="B498" s="0">
         <v>497</v>
@@ -28213,7 +28467,7 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="B499" s="0">
         <v>498</v>
@@ -28269,7 +28523,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
       <c r="B500" s="0">
         <v>499</v>
@@ -28325,7 +28579,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
       <c r="B501" s="0">
         <v>500</v>
@@ -28377,7 +28631,7 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B502" s="0">
         <v>501</v>
@@ -28429,7 +28683,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B503" s="0">
         <v>502</v>
@@ -28481,7 +28735,7 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B504" s="0">
         <v>503</v>
@@ -28533,7 +28787,7 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B505" s="0">
         <v>504</v>
@@ -28589,7 +28843,7 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B506" s="0">
         <v>505</v>
@@ -28645,7 +28899,7 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B507" s="0">
         <v>506</v>
@@ -28701,7 +28955,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
       <c r="B508" s="0">
         <v>507</v>
@@ -28757,7 +29011,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="B509" s="0">
         <v>508</v>
@@ -28813,7 +29067,7 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="B510" s="0">
         <v>509</v>
@@ -28869,7 +29123,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
       <c r="B511" s="0">
         <v>510</v>
@@ -28925,7 +29179,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B512" s="0">
         <v>511</v>
@@ -28981,7 +29235,7 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B513" s="0">
         <v>512</v>
@@ -29037,7 +29291,7 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B514" s="0">
         <v>513</v>
@@ -29093,7 +29347,7 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B515" s="0">
         <v>514</v>
@@ -29149,7 +29403,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B516" s="0">
         <v>515</v>
@@ -29205,7 +29459,7 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="B517" s="0">
         <v>516</v>
@@ -29261,7 +29515,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="B518" s="0">
         <v>517</v>
@@ -29313,7 +29567,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B519" s="0">
         <v>518</v>
@@ -29369,7 +29623,7 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B520" s="0">
         <v>519</v>
@@ -29421,7 +29675,7 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B521" s="0">
         <v>520</v>
@@ -29477,7 +29731,7 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B522" s="0">
         <v>521</v>
@@ -29529,7 +29783,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B523" s="0">
         <v>522</v>
@@ -29581,7 +29835,7 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B524" s="0">
         <v>523</v>
@@ -29633,7 +29887,7 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B525" s="0">
         <v>524</v>
@@ -29689,7 +29943,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="B526" s="0">
         <v>525</v>
@@ -29741,7 +29995,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B527" s="0">
         <v>526</v>
@@ -29797,7 +30051,7 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B528" s="0">
         <v>527</v>
@@ -29853,7 +30107,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B529" s="0">
         <v>528</v>
@@ -29909,7 +30163,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B530" s="0">
         <v>529</v>
@@ -29961,7 +30215,7 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B531" s="0">
         <v>530</v>
@@ -30017,7 +30271,7 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B532" s="0">
         <v>531</v>
@@ -30069,7 +30323,7 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B533" s="0">
         <v>532</v>
@@ -30125,7 +30379,7 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B534" s="0">
         <v>533</v>
@@ -30177,7 +30431,7 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="B535" s="0">
         <v>534</v>
@@ -30233,7 +30487,7 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="B536" s="0">
         <v>535</v>
@@ -30289,7 +30543,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="B537" s="0">
         <v>536</v>
@@ -30345,7 +30599,7 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="B538" s="0">
         <v>537</v>
@@ -30401,7 +30655,7 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="B539" s="0">
         <v>538</v>
@@ -30457,7 +30711,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="B540" s="0">
         <v>539</v>
@@ -30509,7 +30763,7 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
       <c r="B541" s="0">
         <v>540</v>
@@ -30565,7 +30819,7 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B542" s="0">
         <v>541</v>
@@ -30621,7 +30875,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B543" s="0">
         <v>542</v>
@@ -30677,7 +30931,7 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B544" s="0">
         <v>543</v>
@@ -30733,7 +30987,7 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B545" s="0">
         <v>544</v>
@@ -30785,7 +31039,7 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
       <c r="B546" s="0">
         <v>545</v>
@@ -30841,7 +31095,7 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B547" s="0">
         <v>546</v>
@@ -30893,7 +31147,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B548" s="0">
         <v>547</v>
@@ -30949,7 +31203,7 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B549" s="0">
         <v>548</v>
@@ -31001,7 +31255,7 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B550" s="0">
         <v>549</v>
@@ -31057,7 +31311,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B551" s="0">
         <v>550</v>
@@ -31109,7 +31363,7 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B552" s="0">
         <v>551</v>
@@ -31161,7 +31415,7 @@
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B553" s="0">
         <v>552</v>
@@ -31213,7 +31467,7 @@
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B554" s="0">
         <v>553</v>
@@ -31269,7 +31523,7 @@
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B555" s="0">
         <v>554</v>
@@ -31321,7 +31575,7 @@
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B556" s="0">
         <v>555</v>
@@ -31377,7 +31631,7 @@
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B557" s="0">
         <v>556</v>
@@ -31433,7 +31687,7 @@
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B558" s="0">
         <v>557</v>
@@ -31485,7 +31739,7 @@
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B559" s="0">
         <v>558</v>
@@ -31537,7 +31791,7 @@
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B560" s="0">
         <v>559</v>
@@ -31589,7 +31843,7 @@
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B561" s="0">
         <v>560</v>
@@ -31641,7 +31895,7 @@
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B562" s="0">
         <v>561</v>
@@ -31693,7 +31947,7 @@
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B563" s="0">
         <v>562</v>
@@ -31745,7 +31999,7 @@
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B564" s="0">
         <v>563</v>
@@ -31797,7 +32051,7 @@
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B565" s="0">
         <v>564</v>
@@ -31849,7 +32103,7 @@
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B566" s="0">
         <v>565</v>
@@ -31901,7 +32155,7 @@
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B567" s="0">
         <v>566</v>
@@ -31957,7 +32211,7 @@
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B568" s="0">
         <v>567</v>
@@ -32009,7 +32263,7 @@
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B569" s="0">
         <v>568</v>
@@ -32061,7 +32315,7 @@
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B570" s="0">
         <v>569</v>
@@ -32113,7 +32367,7 @@
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="B571" s="0">
         <v>570</v>
